--- a/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/Tarikan GCC/GGI_IS - PO Preparation.xlsx
+++ b/PROJECTS MACRO/WO Produksi Sewing - WS_TC_SMP_PR/Tarikan GCC/GGI_IS - PO Preparation.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\Bersama\IT\RPA Produksi\WO Produksi Sewing - WS_TC_SMP_PR\Tarikan GCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{809448F0-2F1D-40FC-8C66-BE999B5B75F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{872918AB-E9C9-4419-9728-F72DDE19EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="- WO Produksi Sewing (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="GGI_IS - WO Produksi Sewing (7)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -76,15 +76,30 @@
     <t>Pola.Marker</t>
   </si>
   <si>
+    <t>KLB</t>
+  </si>
+  <si>
+    <t>ADIDAS</t>
+  </si>
+  <si>
+    <t>Meillysa</t>
+  </si>
+  <si>
+    <t>Nisa Rahayu</t>
+  </si>
+  <si>
+    <t>Deus Herlania, Alifia</t>
+  </si>
+  <si>
+    <t>Akbar, Ibrahim</t>
+  </si>
+  <si>
+    <t>Titi</t>
+  </si>
+  <si>
     <t>MJ2</t>
   </si>
   <si>
-    <t>ADIDAS</t>
-  </si>
-  <si>
-    <t>Meillysa</t>
-  </si>
-  <si>
     <t>Siti Rokayah</t>
   </si>
   <si>
@@ -94,7 +109,19 @@
     <t>Prendi</t>
   </si>
   <si>
-    <t>Titi</t>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>Lilis</t>
+  </si>
+  <si>
+    <t>Wulan</t>
+  </si>
+  <si>
+    <t>Asep Dodi</t>
+  </si>
+  <si>
+    <t>Iwan, Dudung</t>
   </si>
   <si>
     <t>CVA</t>
@@ -115,16 +142,37 @@
     <t>Bastian</t>
   </si>
   <si>
-    <t>KLB</t>
-  </si>
-  <si>
-    <t>Nisa Rahayu</t>
-  </si>
-  <si>
-    <t>Deus Herlania, Alifia</t>
-  </si>
-  <si>
-    <t>Akbar, Ibrahim</t>
+    <t>NISHIMATSUYA,</t>
+  </si>
+  <si>
+    <t>CNJ2</t>
+  </si>
+  <si>
+    <t>KAZEN-S#</t>
+  </si>
+  <si>
+    <t>Winta</t>
+  </si>
+  <si>
+    <t>Sularsi</t>
+  </si>
+  <si>
+    <t>Mareta Ayu</t>
+  </si>
+  <si>
+    <t>Dony</t>
+  </si>
+  <si>
+    <t>Deny</t>
+  </si>
+  <si>
+    <t>CLN</t>
+  </si>
+  <si>
+    <t>CJL</t>
+  </si>
+  <si>
+    <t>Ati Astuti</t>
   </si>
   <si>
     <t>MJ1</t>
@@ -139,61 +187,16 @@
     <t>Sausan, Imam, Endah</t>
   </si>
   <si>
-    <t>CNJ2</t>
-  </si>
-  <si>
-    <t>KAZEN-S#</t>
-  </si>
-  <si>
-    <t>Sularsi</t>
-  </si>
-  <si>
-    <t>Mareta Ayu</t>
-  </si>
-  <si>
-    <t>Dony</t>
-  </si>
-  <si>
-    <t>Deny</t>
-  </si>
-  <si>
-    <t>CLN</t>
-  </si>
-  <si>
-    <t>CJL</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>Sary</t>
-  </si>
-  <si>
-    <t>Ati Astuti</t>
-  </si>
-  <si>
-    <t>NISHIMATSUYA,</t>
-  </si>
-  <si>
-    <t>SKECHERS-S#</t>
-  </si>
-  <si>
-    <t>Winta</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
-    <t>Lilis</t>
-  </si>
-  <si>
-    <t>Wulan</t>
-  </si>
-  <si>
-    <t>Asep Dodi</t>
-  </si>
-  <si>
-    <t>Iwan, Dudung</t>
+    <t>AITOZ,</t>
+  </si>
+  <si>
+    <t>HNM</t>
+  </si>
+  <si>
+    <t>Erna</t>
+  </si>
+  <si>
+    <t>EIGER,</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1157,37 +1160,43 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>181746</v>
+        <v>181924</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G2" s="1">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="H2" s="2">
-        <v>45274.407731481479</v>
+        <v>45271.55259259259</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45271.55259259259</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="N2" s="2">
+        <v>45271.55259259259</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="R2" t="s">
         <v>21</v>
@@ -1202,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1217,16 +1226,16 @@
         <v>21</v>
       </c>
       <c r="AE2">
-        <v>-31</v>
+        <v>-8</v>
       </c>
       <c r="AF2" s="2">
-        <v>45299.554270833331</v>
+        <v>45320.327673611115</v>
       </c>
       <c r="AG2" t="s">
         <v>24</v>
       </c>
       <c r="AH2">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -1240,70 +1249,82 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>181673</v>
+        <v>181940</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45342</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45347</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45271.56486111111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45271.56486111111</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>71</v>
+      </c>
+      <c r="N3" s="2">
+        <v>45271.56486111111</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>71</v>
+      </c>
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1">
-        <v>45338</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45343</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
         <v>27</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="X3" t="s">
         <v>28</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AD3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>45338.338935185187</v>
       </c>
       <c r="AG3" t="s">
         <v>24</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -1311,103 +1332,91 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>181584</v>
+        <v>181717</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G4" s="1">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="H4" s="2">
-        <v>45271.399143518516</v>
+        <v>45274.378912037035</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2">
-        <v>45271.399143518516</v>
+        <v>45274.378912037035</v>
       </c>
       <c r="L4" t="s">
         <v>20</v>
       </c>
       <c r="M4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2">
-        <v>45271.399143518516</v>
+        <v>45274.378912037035</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
       <c r="P4">
-        <v>67</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>45296.676215277781</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="S4">
-        <v>42</v>
-      </c>
-      <c r="T4" s="2">
-        <v>45322.655486111114</v>
+        <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="V4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>45323.451192129629</v>
+        <v>45321.680844907409</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y4">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>45334.529293981483</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB4">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>45329.569814814815</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE4">
-        <v>-33</v>
+        <v>-14</v>
       </c>
       <c r="AF4" s="2">
-        <v>45271.334444444445</v>
+        <v>45314.336724537039</v>
       </c>
       <c r="AG4" t="s">
         <v>24</v>
       </c>
       <c r="AH4">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -1415,88 +1424,88 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>182004</v>
+        <v>181936</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G5" s="1">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="H5" s="2">
-        <v>45308.488194444442</v>
+        <v>45271.556979166664</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2">
-        <v>45308.488194444442</v>
+        <v>45271.556979166664</v>
       </c>
       <c r="L5" t="s">
         <v>20</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N5" s="2">
-        <v>45308.488194444442</v>
+        <v>45271.556979166664</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AD5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AE5">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="AF5" s="2">
-        <v>45331.4374537037</v>
+        <v>45300.332442129627</v>
       </c>
       <c r="AG5" t="s">
         <v>24</v>
       </c>
       <c r="AH5">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -1504,82 +1513,88 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>181729</v>
+        <v>181722</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G6" s="1">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="H6" s="2">
-        <v>45286.614131944443</v>
+        <v>45275.42869212963</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="K6" s="2">
+        <v>45295.378958333335</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="N6" s="2">
+        <v>45295.378958333335</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="AA6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE6">
-        <v>-35</v>
+        <v>-47</v>
       </c>
       <c r="AF6" s="2">
-        <v>45289.336180555554</v>
+        <v>45288.327164351853</v>
       </c>
       <c r="AG6" t="s">
         <v>24</v>
       </c>
       <c r="AH6">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -1587,70 +1602,85 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>181759</v>
+        <v>182002</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G7" s="1">
-        <v>45343</v>
+        <v>45347</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45308.481064814812</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45308.481064814812</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="N7" s="2">
+        <v>45308.481064814812</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="AA7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AD7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AE7">
-        <v>-4</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>45299.555046296293</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="s">
         <v>24</v>
       </c>
       <c r="AH7">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -1658,94 +1688,88 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>182045</v>
+        <v>181733</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45342</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45347</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45295.380798611113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8">
         <v>47</v>
       </c>
-      <c r="F8" s="1">
-        <v>45338</v>
-      </c>
-      <c r="G8" s="1">
-        <v>45343</v>
-      </c>
-      <c r="H8" s="2">
-        <v>45321.361446759256</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
       <c r="K8" s="2">
-        <v>45321.361446759256</v>
+        <v>45295.380798611113</v>
       </c>
       <c r="L8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2">
-        <v>45321.361446759256</v>
+        <v>45295.380798611113</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="P8">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>45321.322152777779</v>
+        <v>47</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="S8">
-        <v>17</v>
-      </c>
-      <c r="T8" s="2">
-        <v>45323.390370370369</v>
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
       </c>
       <c r="V8">
-        <v>15</v>
-      </c>
-      <c r="W8" s="2">
-        <v>45322.631064814814</v>
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>28</v>
       </c>
       <c r="Y8">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>45322.631064814814</v>
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>28</v>
       </c>
       <c r="AB8">
-        <v>16</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>45337.487233796295</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AE8">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="AF8" s="2">
-        <v>45321.33</v>
+        <v>45300.332442129627</v>
       </c>
       <c r="AG8" t="s">
         <v>24</v>
       </c>
       <c r="AH8">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -1759,82 +1783,97 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>181846</v>
+        <v>181920</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G9" s="1">
-        <v>45343</v>
+        <v>45347</v>
       </c>
       <c r="H9" s="2">
-        <v>45271.421643518515</v>
+        <v>45271.549155092594</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
       <c r="J9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K9" s="2">
-        <v>45271.421643518515</v>
+        <v>45271.549155092594</v>
       </c>
       <c r="L9" t="s">
         <v>20</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N9" s="2">
-        <v>45271.421643518515</v>
+        <v>45271.549155092594</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
       </c>
       <c r="P9">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>45329.437152777777</v>
       </c>
       <c r="R9" t="s">
         <v>21</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="T9" s="2">
+        <v>45334.554525462961</v>
       </c>
       <c r="U9" t="s">
         <v>22</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="W9" s="2">
+        <v>45327.372893518521</v>
       </c>
       <c r="X9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>45334.527986111112</v>
       </c>
       <c r="AA9" t="s">
         <v>23</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>45329.571446759262</v>
       </c>
       <c r="AD9" t="s">
         <v>21</v>
       </c>
       <c r="AE9">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="AF9" s="2">
-        <v>45321.326504629629</v>
+        <v>45323.347870370373</v>
       </c>
       <c r="AG9" t="s">
         <v>24</v>
       </c>
       <c r="AH9">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1845,85 +1884,70 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>181931</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
+        <v>24001002</v>
       </c>
       <c r="F10" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="G10" s="1">
-        <v>45343</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45271.554629629631</v>
+        <v>45347</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>67</v>
-      </c>
-      <c r="K10" s="2">
-        <v>45271.554629629631</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>67</v>
-      </c>
-      <c r="N10" s="2">
-        <v>45271.554629629631</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P10">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="AA10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AD10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AE10">
-        <v>-9</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>45316.32099537037</v>
+        <v>-19773</v>
       </c>
       <c r="AG10" t="s">
         <v>24</v>
       </c>
       <c r="AH10">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -1931,70 +1955,76 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>181668</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45342</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45347</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>181756</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45339</v>
-      </c>
-      <c r="G11" s="1">
-        <v>45344</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="X11" t="s">
-        <v>43</v>
-      </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE11">
-        <v>-9</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>45313.341296296298</v>
+        <v>28</v>
       </c>
       <c r="AG11" t="s">
         <v>24</v>
       </c>
       <c r="AH11">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -2002,88 +2032,85 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>181844</v>
+        <v>182009</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1">
-        <v>45339</v>
+        <v>45342</v>
       </c>
       <c r="G12" s="1">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="H12" s="2">
-        <v>45271.421030092592</v>
+        <v>45306.441365740742</v>
       </c>
       <c r="I12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J12">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="K12" s="2">
-        <v>45271.421030092592</v>
+        <v>45306.441365740742</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2">
-        <v>45271.421030092592</v>
+        <v>45306.441365740742</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P12">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AE12">
-        <v>-7</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>45320.324791666666</v>
+        <v>-11</v>
       </c>
       <c r="AG12" t="s">
         <v>24</v>
       </c>
       <c r="AH12">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -2091,103 +2118,76 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>181588</v>
+        <v>181680</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1">
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="G13" s="1">
-        <v>45344</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45272.426759259259</v>
+        <v>45348</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J13">
-        <v>67</v>
-      </c>
-      <c r="K13" s="2">
-        <v>45272.426759259259</v>
+        <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>67</v>
-      </c>
-      <c r="N13" s="2">
-        <v>45272.426759259259</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P13">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>45294.64671296296</v>
+        <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S13">
-        <v>45</v>
-      </c>
-      <c r="T13" s="2">
-        <v>45322.655486111114</v>
+        <v>1</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="V13">
-        <v>17</v>
-      </c>
-      <c r="W13" s="2">
-        <v>45323.451192129629</v>
+        <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y13">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>45334.529293981483</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB13">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="2">
-        <v>45329.570393518516</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE13">
-        <v>-36</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>45279.340451388889</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="s">
         <v>24</v>
       </c>
       <c r="AH13">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -2195,103 +2195,88 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>181591</v>
+        <v>181954</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="1">
-        <v>45339</v>
+        <v>45343</v>
       </c>
       <c r="G14" s="1">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="H14" s="2">
-        <v>45272.432997685188</v>
+        <v>45271.498043981483</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
       <c r="J14">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2">
-        <v>45272.432997685188</v>
+        <v>45271.498043981483</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
       </c>
       <c r="M14">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2">
-        <v>45272.432997685188</v>
+        <v>45271.498043981483</v>
       </c>
       <c r="O14" t="s">
         <v>20</v>
       </c>
       <c r="P14">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>45301.446018518516</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S14">
-        <v>38</v>
-      </c>
-      <c r="T14" s="2">
-        <v>45322.65662037037</v>
+        <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V14">
-        <v>17</v>
-      </c>
-      <c r="W14" s="2">
-        <v>45323.451423611114</v>
+        <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y14">
-        <v>16</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>45334.527986111112</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB14">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>45329.569814814815</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE14">
-        <v>-35</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="2">
-        <v>45280.342152777775</v>
+        <v>45337.325752314813</v>
       </c>
       <c r="AG14" t="s">
         <v>24</v>
       </c>
       <c r="AH14">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -2299,103 +2284,88 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>181824</v>
+        <v>181957</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="1">
-        <v>45339</v>
+        <v>45344</v>
       </c>
       <c r="G15" s="1">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="H15" s="2">
-        <v>45271.41269675926</v>
+        <v>45271.545729166668</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
       <c r="J15">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K15" s="2">
-        <v>45271.41269675926</v>
+        <v>45271.545729166668</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N15" s="2">
-        <v>45271.41269675926</v>
+        <v>45271.545729166668</v>
       </c>
       <c r="O15" t="s">
         <v>20</v>
       </c>
       <c r="P15">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>45310.430833333332</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S15">
-        <v>29</v>
-      </c>
-      <c r="T15" s="2">
-        <v>45322.656631944446</v>
+        <v>2</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V15">
-        <v>17</v>
-      </c>
-      <c r="W15" s="2">
-        <v>45320.659317129626</v>
+        <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y15">
-        <v>19</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>45334.527986111112</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB15">
-        <v>5</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>45329.569814814815</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE15">
-        <v>-23</v>
+        <v>-5</v>
       </c>
       <c r="AF15" s="2">
-        <v>45301.538449074076</v>
+        <v>45323.347870370373</v>
       </c>
       <c r="AG15" t="s">
         <v>24</v>
       </c>
       <c r="AH15">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -2403,88 +2373,88 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>181940</v>
+        <v>181925</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="1">
-        <v>45339</v>
+        <v>45344</v>
       </c>
       <c r="G16" s="1">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="H16" s="2">
-        <v>45271.56486111111</v>
+        <v>45271.552835648145</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
       <c r="J16">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K16" s="2">
-        <v>45271.56486111111</v>
+        <v>45271.552835648145</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
       </c>
       <c r="M16">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N16" s="2">
-        <v>45271.56486111111</v>
+        <v>45271.552835648145</v>
       </c>
       <c r="O16" t="s">
         <v>20</v>
       </c>
       <c r="P16">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE16">
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="AF16" s="2">
-        <v>45338.338935185187</v>
+        <v>45323.348182870373</v>
       </c>
       <c r="AG16" t="s">
         <v>24</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
@@ -2498,82 +2468,82 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>181601</v>
+        <v>181921</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="1">
-        <v>45339</v>
+        <v>45344</v>
       </c>
       <c r="G17" s="1">
-        <v>45344</v>
+        <v>45349</v>
       </c>
       <c r="H17" s="2">
-        <v>45268.672939814816</v>
+        <v>45271.549456018518</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
       <c r="J17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K17" s="2">
-        <v>45268.672939814816</v>
+        <v>45271.549456018518</v>
       </c>
       <c r="L17" t="s">
         <v>20</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N17" s="2">
-        <v>45268.672939814816</v>
+        <v>45271.549456018518</v>
       </c>
       <c r="O17" t="s">
         <v>20</v>
       </c>
       <c r="P17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R17" t="s">
         <v>21</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17" t="s">
         <v>22</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="s">
         <v>23</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="s">
         <v>21</v>
       </c>
       <c r="AE17">
-        <v>-64</v>
+        <v>8</v>
       </c>
       <c r="AF17" s="2">
-        <v>45268.331423611111</v>
+        <v>45337.325752314813</v>
       </c>
       <c r="AG17" t="s">
         <v>24</v>
       </c>
       <c r="AH17">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
@@ -2581,85 +2551,76 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>182008</v>
+        <v>181670</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1">
-        <v>45339</v>
+        <v>45344</v>
       </c>
       <c r="G18" s="1">
-        <v>45344</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45306.441365740742</v>
+        <v>45349</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J18">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2">
-        <v>45306.441365740742</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>33</v>
-      </c>
-      <c r="N18" s="2">
-        <v>45306.441365740742</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P18">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE18">
         <v>29</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="X18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE18">
-        <v>-29</v>
       </c>
       <c r="AG18" t="s">
         <v>24</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -2667,88 +2628,76 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>181738</v>
+        <v>181672</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="G19" s="1">
-        <v>45344</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45274.394560185188</v>
+        <v>45350</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J19">
-        <v>65</v>
-      </c>
-      <c r="K19" s="2">
-        <v>45274.394560185188</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>65</v>
-      </c>
-      <c r="N19" s="2">
-        <v>45274.394560185188</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P19">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="R19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X19" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AE19">
-        <v>-29</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>45295.326666666668</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="s">
         <v>24</v>
       </c>
       <c r="AH19">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -2762,70 +2711,82 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>181901</v>
+        <v>181735</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="G20" s="1">
-        <v>45344</v>
+        <v>45350</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45275.424525462964</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="K20" s="2">
+        <v>45295.382893518516</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="N20" s="2">
+        <v>45295.382893518516</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="X20" t="s">
         <v>28</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="U20" t="s">
-        <v>29</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="X20" t="s">
-        <v>30</v>
-      </c>
       <c r="Y20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-40</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>45295.325312499997</v>
       </c>
       <c r="AG20" t="s">
         <v>24</v>
       </c>
       <c r="AH20">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
@@ -2833,88 +2794,91 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>181743</v>
+        <v>181767</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="G21" s="1">
-        <v>45344</v>
+        <v>45350</v>
       </c>
       <c r="H21" s="2">
-        <v>45271.404953703706</v>
+        <v>45289.398831018516</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J21">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="K21" s="2">
+        <v>45289.398449074077</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="N21" s="2">
+        <v>45289.398449074077</v>
       </c>
       <c r="O21" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>45317.407118055555</v>
       </c>
       <c r="R21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="U21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2">
-        <v>45329.6796412037</v>
+        <v>3</v>
       </c>
       <c r="X21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Y21">
-        <v>10</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>45329.6796412037</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AB21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AE21">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="AF21" s="2">
-        <v>45271.335694444446</v>
+        <v>45308.459641203706</v>
       </c>
       <c r="AG21" t="s">
         <v>24</v>
       </c>
       <c r="AH21">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
@@ -2922,103 +2886,88 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>181826</v>
+        <v>181937</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1">
-        <v>45340</v>
+        <v>45345</v>
       </c>
       <c r="G22" s="1">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="H22" s="2">
-        <v>45271.415138888886</v>
+        <v>45271.557604166665</v>
       </c>
       <c r="I22" t="s">
         <v>20</v>
       </c>
       <c r="J22">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K22" s="2">
-        <v>45271.415138888886</v>
+        <v>45271.557604166665</v>
       </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
       <c r="M22">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N22" s="2">
-        <v>45271.415138888886</v>
+        <v>45271.557604166665</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
       </c>
       <c r="P22">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>45310.429699074077</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S22">
-        <v>30</v>
-      </c>
-      <c r="T22" s="2">
-        <v>45322.656631944446</v>
+        <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V22">
-        <v>18</v>
-      </c>
-      <c r="W22" s="2">
-        <v>45320.659317129626</v>
+        <v>3</v>
       </c>
       <c r="X22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y22">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>45334.527986111112</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB22">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>45329.570706018516</v>
+        <v>3</v>
       </c>
       <c r="AD22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE22">
-        <v>-26</v>
+        <v>-4</v>
       </c>
       <c r="AF22" s="2">
-        <v>45301.538449074076</v>
+        <v>45301.323530092595</v>
       </c>
       <c r="AG22" t="s">
         <v>24</v>
       </c>
       <c r="AH22">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
@@ -3026,88 +2975,88 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>181988</v>
+        <v>181943</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="1">
-        <v>45340</v>
+        <v>45345</v>
       </c>
       <c r="G23" s="1">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="H23" s="2">
-        <v>45308.399780092594</v>
+        <v>45271.49428240741</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="J23">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="K23" s="2">
-        <v>45308.399780092594</v>
+        <v>45271.49428240741</v>
       </c>
       <c r="L23" t="s">
         <v>20</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N23" s="2">
-        <v>45308.399780092594</v>
+        <v>45271.49428240741</v>
       </c>
       <c r="O23" t="s">
         <v>20</v>
       </c>
       <c r="P23">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X23" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="Y23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AE23">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="AF23" s="2">
-        <v>45316.320462962962</v>
+        <v>45323.347870370373</v>
       </c>
       <c r="AG23" t="s">
         <v>24</v>
       </c>
       <c r="AH23">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -3115,103 +3064,103 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>181585</v>
+        <v>181826</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1">
-        <v>45340</v>
+        <v>45345</v>
       </c>
       <c r="G24" s="1">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="H24" s="2">
-        <v>45271.399340277778</v>
+        <v>45271.415138888886</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
       </c>
       <c r="J24">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K24" s="2">
-        <v>45271.399340277778</v>
+        <v>45271.415138888886</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N24" s="2">
-        <v>45271.399340277778</v>
+        <v>45271.415138888886</v>
       </c>
       <c r="O24" t="s">
         <v>20</v>
       </c>
       <c r="P24">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2">
-        <v>45296.677314814813</v>
+        <v>45310.429699074077</v>
       </c>
       <c r="R24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="S24">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="T24" s="2">
-        <v>45322.656851851854</v>
+        <v>45322.656631944446</v>
       </c>
       <c r="U24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="V24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="W24" s="2">
-        <v>45323.451608796298</v>
+        <v>45320.659317129626</v>
       </c>
       <c r="X24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z24" s="2">
-        <v>45334.529293981483</v>
+        <v>45334.527986111112</v>
       </c>
       <c r="AA24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC24" s="2">
-        <v>45329.570937500001</v>
+        <v>45329.570706018516</v>
       </c>
       <c r="AD24" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE24">
-        <v>-41</v>
+        <v>-26</v>
       </c>
       <c r="AF24" s="2">
-        <v>45271.335081018522</v>
+        <v>45301.538449074076</v>
       </c>
       <c r="AG24" t="s">
         <v>24</v>
       </c>
       <c r="AH24">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -3219,82 +3168,82 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>181730</v>
+        <v>181748</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="1">
-        <v>45340</v>
+        <v>45345</v>
       </c>
       <c r="G25" s="1">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="H25" s="2">
-        <v>45287.71230324074</v>
+        <v>45274.460729166669</v>
       </c>
       <c r="I25" t="s">
         <v>20</v>
       </c>
       <c r="J25">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
         <v>20</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE25">
         <v>-32</v>
       </c>
       <c r="AF25" s="2">
-        <v>45289.337256944447</v>
+        <v>45300.328958333332</v>
       </c>
       <c r="AG25" t="s">
         <v>24</v>
       </c>
       <c r="AH25">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
@@ -3302,88 +3251,67 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D26">
-        <v>181938</v>
+        <v>181771</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1">
-        <v>45341</v>
+        <v>45345</v>
       </c>
       <c r="G26" s="1">
-        <v>45346</v>
-      </c>
-      <c r="H26" s="2">
-        <v>45271.557951388888</v>
-      </c>
-      <c r="I26" t="s">
-        <v>20</v>
+        <v>45350</v>
       </c>
       <c r="J26">
-        <v>70</v>
-      </c>
-      <c r="K26" s="2">
-        <v>45271.557951388888</v>
-      </c>
-      <c r="L26" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>70</v>
-      </c>
-      <c r="N26" s="2">
-        <v>45271.557951388888</v>
-      </c>
-      <c r="O26" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="R26" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="S26">
         <v>3</v>
       </c>
-      <c r="U26" t="s">
-        <v>22</v>
-      </c>
       <c r="V26">
         <v>3</v>
       </c>
-      <c r="X26" t="s">
-        <v>23</v>
+      <c r="W26" s="2">
+        <v>45334.611562500002</v>
       </c>
       <c r="Y26">
-        <v>3</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>45334.611562500002</v>
       </c>
       <c r="AB26">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AE26">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="AF26" s="2">
-        <v>45310.383738425924</v>
+        <v>45282.333020833335</v>
       </c>
       <c r="AG26" t="s">
         <v>24</v>
       </c>
       <c r="AH26">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
@@ -3391,91 +3319,88 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>181663</v>
+        <v>181981</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F27" s="1">
-        <v>45341</v>
+        <v>45346</v>
       </c>
       <c r="G27" s="1">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="H27" s="2">
-        <v>45294.590578703705</v>
+        <v>45308.399930555555</v>
       </c>
       <c r="I27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J27">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K27" s="2">
-        <v>45294.590578703705</v>
+        <v>45308.399930555555</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N27" s="2">
-        <v>45294.590578703705</v>
+        <v>45308.399930555555</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P27">
-        <v>47</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>45311.604456018518</v>
+        <v>38</v>
       </c>
       <c r="R27" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="S27">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="U27" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X27" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="AB27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD27" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="AE27">
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="AF27" s="2">
-        <v>45310.383252314816</v>
+        <v>45310.395138888889</v>
       </c>
       <c r="AG27" t="s">
         <v>24</v>
       </c>
       <c r="AH27">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
@@ -3483,79 +3408,76 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>181902</v>
+        <v>181675</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1">
-        <v>45341</v>
+        <v>45346</v>
       </c>
       <c r="G28" s="1">
-        <v>45346</v>
+        <v>45351</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="V28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X28" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AB28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="2">
-        <v>45323.347696759258</v>
+        <v>31</v>
       </c>
       <c r="AG28" t="s">
         <v>24</v>
       </c>
       <c r="AH28">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -3563,103 +3485,82 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D29">
-        <v>181828</v>
+        <v>181725</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="1">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="G29" s="1">
-        <v>45346</v>
+        <v>45352</v>
       </c>
       <c r="H29" s="2">
-        <v>45271.415706018517</v>
+        <v>45275.427835648145</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
       </c>
       <c r="J29">
-        <v>70</v>
-      </c>
-      <c r="K29" s="2">
-        <v>45271.415706018517</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
       </c>
       <c r="M29">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2">
-        <v>45271.415706018517</v>
+        <v>5</v>
       </c>
       <c r="O29" t="s">
         <v>20</v>
       </c>
       <c r="P29">
-        <v>70</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>45310.430671296293</v>
+        <v>5</v>
       </c>
       <c r="R29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S29">
-        <v>31</v>
-      </c>
-      <c r="T29" s="2">
-        <v>45322.656631944446</v>
+        <v>5</v>
       </c>
       <c r="U29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V29">
-        <v>19</v>
-      </c>
-      <c r="W29" s="2">
-        <v>45320.659317129626</v>
+        <v>5</v>
       </c>
       <c r="X29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y29">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>45323.313287037039</v>
+        <v>5</v>
       </c>
       <c r="AA29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB29">
-        <v>18</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>45329.570393518516</v>
+        <v>5</v>
       </c>
       <c r="AD29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE29">
-        <v>-26</v>
+        <v>-14</v>
       </c>
       <c r="AF29" s="2">
-        <v>45301.537407407406</v>
+        <v>45314.336724537039</v>
       </c>
       <c r="AG29" t="s">
         <v>24</v>
       </c>
       <c r="AH29">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -3667,88 +3568,88 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>181987</v>
+        <v>181952</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="1">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="G30" s="1">
-        <v>45346</v>
+        <v>45352</v>
       </c>
       <c r="H30" s="2">
-        <v>45308.399375000001</v>
+        <v>45271.497106481482</v>
       </c>
       <c r="I30" t="s">
         <v>20</v>
       </c>
       <c r="J30">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="K30" s="2">
-        <v>45308.399375000001</v>
+        <v>45271.497106481482</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="N30" s="2">
-        <v>45308.399375000001</v>
+        <v>45271.497106481482</v>
       </c>
       <c r="O30" t="s">
         <v>20</v>
       </c>
       <c r="P30">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U30" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AB30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AE30">
-        <v>-18</v>
+        <v>-1</v>
       </c>
       <c r="AF30" s="2">
-        <v>45308.458784722221</v>
+        <v>45327.325312499997</v>
       </c>
       <c r="AG30" t="s">
         <v>24</v>
       </c>
       <c r="AH30">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
@@ -3756,88 +3657,82 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>181939</v>
+        <v>181724</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="1">
-        <v>45341</v>
+        <v>45347</v>
       </c>
       <c r="G31" s="1">
-        <v>45346</v>
+        <v>45352</v>
       </c>
       <c r="H31" s="2">
-        <v>45271.558391203704</v>
+        <v>45275.42728009259</v>
       </c>
       <c r="I31" t="s">
         <v>20</v>
       </c>
       <c r="J31">
-        <v>70</v>
-      </c>
-      <c r="K31" s="2">
-        <v>45271.558391203704</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
       <c r="M31">
-        <v>70</v>
-      </c>
-      <c r="N31" s="2">
-        <v>45271.558391203704</v>
+        <v>5</v>
       </c>
       <c r="O31" t="s">
         <v>20</v>
       </c>
       <c r="P31">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="R31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AD31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE31">
-        <v>-9</v>
+        <v>-33</v>
       </c>
       <c r="AF31" s="2">
-        <v>45315.349930555552</v>
+        <v>45296.328298611108</v>
       </c>
       <c r="AG31" t="s">
         <v>24</v>
       </c>
       <c r="AH31">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
@@ -3851,70 +3746,82 @@
         <v>25</v>
       </c>
       <c r="D32">
-        <v>181667</v>
+        <v>181958</v>
       </c>
       <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45348</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45353</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45271.546238425923</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>77</v>
+      </c>
+      <c r="K32" s="2">
+        <v>45271.546238425923</v>
+      </c>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>77</v>
+      </c>
+      <c r="N32" s="2">
+        <v>45271.546238425923</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32">
+        <v>77</v>
+      </c>
+      <c r="R32" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="1">
-        <v>45341</v>
-      </c>
-      <c r="G32" s="1">
-        <v>45346</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="U32" t="s">
         <v>27</v>
       </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="L32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="O32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32">
-        <v>3</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="V32">
+        <v>6</v>
+      </c>
+      <c r="X32" t="s">
         <v>28</v>
       </c>
-      <c r="S32">
-        <v>3</v>
-      </c>
-      <c r="U32" t="s">
-        <v>29</v>
-      </c>
-      <c r="V32">
-        <v>3</v>
-      </c>
-      <c r="X32" t="s">
-        <v>30</v>
-      </c>
       <c r="Y32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE32">
-        <v>36</v>
+        <v>-1</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>45327.325439814813</v>
       </c>
       <c r="AG32" t="s">
         <v>24</v>
       </c>
       <c r="AH32">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
@@ -3922,73 +3829,88 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>181797</v>
+        <v>181953</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F33" s="1">
-        <v>45341</v>
+        <v>45348</v>
       </c>
       <c r="G33" s="1">
-        <v>45346</v>
+        <v>45353</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45271.497442129628</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="K33" s="2">
+        <v>45271.497442129628</v>
+      </c>
+      <c r="L33" t="s">
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="N33" s="2">
+        <v>45271.497442129628</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
       </c>
       <c r="P33">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>45317.407118055555</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="S33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="U33" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X33" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA33" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD33" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AE33">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="AF33" s="2">
-        <v>45314.336724537039</v>
+        <v>45302.34375</v>
       </c>
       <c r="AG33" t="s">
         <v>24</v>
       </c>
       <c r="AH33">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -3996,88 +3918,88 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>181948</v>
+        <v>181927</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="1">
-        <v>45341</v>
+        <v>45348</v>
       </c>
       <c r="G34" s="1">
-        <v>45346</v>
+        <v>45353</v>
       </c>
       <c r="H34" s="2">
-        <v>45271.495578703703</v>
+        <v>45271.553657407407</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
       </c>
       <c r="J34">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K34" s="2">
-        <v>45271.495578703703</v>
+        <v>45271.553657407407</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
       </c>
       <c r="M34">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N34" s="2">
-        <v>45271.495578703703</v>
+        <v>45271.553657407407</v>
       </c>
       <c r="O34" t="s">
         <v>20</v>
       </c>
       <c r="P34">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE34">
         <v>-4</v>
       </c>
       <c r="AF34" s="2">
-        <v>45320.327557870369</v>
+        <v>45324.333784722221</v>
       </c>
       <c r="AG34" t="s">
         <v>24</v>
       </c>
       <c r="AH34">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
@@ -4091,70 +4013,76 @@
         <v>25</v>
       </c>
       <c r="D35">
-        <v>181900</v>
+        <v>181720</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F35" s="1">
-        <v>45341</v>
+        <v>45348</v>
       </c>
       <c r="G35" s="1">
-        <v>45346</v>
+        <v>45353</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45275.421354166669</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="L35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R35" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="U35" t="s">
+        <v>27</v>
+      </c>
+      <c r="V35">
+        <v>6</v>
+      </c>
+      <c r="X35" t="s">
         <v>28</v>
       </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
-      <c r="U35" t="s">
-        <v>29</v>
-      </c>
-      <c r="V35">
-        <v>3</v>
-      </c>
-      <c r="X35" t="s">
-        <v>30</v>
-      </c>
       <c r="Y35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AD35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE35">
-        <v>-1</v>
+        <v>-34</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>45299.555046296293</v>
       </c>
       <c r="AG35" t="s">
         <v>24</v>
       </c>
       <c r="AH35">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
@@ -4162,103 +4090,85 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>181919</v>
+        <v>181949</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="1">
-        <v>45341</v>
+        <v>45348</v>
       </c>
       <c r="G36" s="1">
-        <v>45346</v>
+        <v>45353</v>
       </c>
       <c r="H36" s="2">
-        <v>45271.547812500001</v>
+        <v>45271.495937500003</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
       </c>
       <c r="J36">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K36" s="2">
-        <v>45271.547812500001</v>
+        <v>45271.495937500003</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
       </c>
       <c r="M36">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="N36" s="2">
-        <v>45271.547812500001</v>
+        <v>45271.495937500003</v>
       </c>
       <c r="O36" t="s">
         <v>20</v>
       </c>
       <c r="P36">
-        <v>70</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>45329.436967592592</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S36">
-        <v>12</v>
-      </c>
-      <c r="T36" s="2">
-        <v>45334.554525462961</v>
+        <v>6</v>
       </c>
       <c r="U36" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V36">
-        <v>7</v>
-      </c>
-      <c r="W36" s="2">
-        <v>45323.383831018517</v>
+        <v>6</v>
       </c>
       <c r="X36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y36">
-        <v>18</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>45324.329907407409</v>
+        <v>6</v>
       </c>
       <c r="AA36" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB36">
-        <v>17</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>45329.571446759262</v>
+        <v>6</v>
       </c>
       <c r="AD36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE36">
-        <v>-2</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>45313.340879629628</v>
+        <v>16</v>
       </c>
       <c r="AG36" t="s">
         <v>24</v>
       </c>
       <c r="AH36">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -4266,88 +4176,88 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D37">
-        <v>181924</v>
+        <v>181980</v>
       </c>
       <c r="E37" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="1">
-        <v>45342</v>
+        <v>45348</v>
       </c>
       <c r="G37" s="1">
-        <v>45347</v>
+        <v>45353</v>
       </c>
       <c r="H37" s="2">
-        <v>45271.55259259259</v>
+        <v>45308.399537037039</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
       </c>
       <c r="J37">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="K37" s="2">
-        <v>45271.55259259259</v>
+        <v>45308.399537037039</v>
       </c>
       <c r="L37" t="s">
         <v>20</v>
       </c>
       <c r="M37">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="N37" s="2">
-        <v>45271.55259259259</v>
+        <v>45308.399537037039</v>
       </c>
       <c r="O37" t="s">
         <v>20</v>
       </c>
       <c r="P37">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="R37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U37" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="V37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X37" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="Y37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA37" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AB37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="AE37">
-        <v>-4</v>
+        <v>-27</v>
       </c>
       <c r="AF37" s="2">
-        <v>45320.327673611115</v>
+        <v>45310.383252314816</v>
       </c>
       <c r="AG37" t="s">
         <v>24</v>
       </c>
       <c r="AH37">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
@@ -4361,79 +4271,82 @@
         <v>25</v>
       </c>
       <c r="D38">
-        <v>182009</v>
+        <v>181950</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F38" s="1">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="G38" s="1">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="H38" s="2">
-        <v>45306.441365740742</v>
+        <v>45271.49622685185</v>
       </c>
       <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>78</v>
+      </c>
+      <c r="K38" s="2">
+        <v>45271.49622685185</v>
+      </c>
+      <c r="L38" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>78</v>
+      </c>
+      <c r="N38" s="2">
+        <v>45271.49622685185</v>
+      </c>
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38">
+        <v>78</v>
+      </c>
+      <c r="R38" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="U38" t="s">
         <v>27</v>
       </c>
-      <c r="J38">
-        <v>36</v>
-      </c>
-      <c r="K38" s="2">
-        <v>45306.441365740742</v>
-      </c>
-      <c r="L38" t="s">
-        <v>27</v>
-      </c>
-      <c r="M38">
-        <v>36</v>
-      </c>
-      <c r="N38" s="2">
-        <v>45306.441365740742</v>
-      </c>
-      <c r="O38" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38">
-        <v>36</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="V38">
+        <v>7</v>
+      </c>
+      <c r="X38" t="s">
         <v>28</v>
       </c>
-      <c r="S38">
-        <v>4</v>
-      </c>
-      <c r="U38" t="s">
-        <v>29</v>
-      </c>
-      <c r="V38">
-        <v>4</v>
-      </c>
-      <c r="X38" t="s">
-        <v>30</v>
-      </c>
       <c r="Y38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE38">
-        <v>-7</v>
+        <v>1</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>45329.332175925927</v>
       </c>
       <c r="AG38" t="s">
         <v>24</v>
       </c>
       <c r="AH38">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
@@ -4441,103 +4354,88 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D39">
-        <v>181920</v>
+        <v>182069</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="G39" s="1">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="H39" s="2">
-        <v>45271.549155092594</v>
+        <v>45342.368483796294</v>
       </c>
       <c r="I39" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J39">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="K39" s="2">
-        <v>45271.549155092594</v>
+        <v>45342.368483796294</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M39">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="N39" s="2">
-        <v>45271.549155092594</v>
+        <v>45342.368483796294</v>
       </c>
       <c r="O39" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P39">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="2">
-        <v>45329.437152777777</v>
+        <v>45337.487233796295</v>
       </c>
       <c r="R39" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S39">
-        <v>13</v>
-      </c>
-      <c r="T39" s="2">
-        <v>45334.554525462961</v>
-      </c>
-      <c r="U39" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="V39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W39" s="2">
-        <v>45327.372893518521</v>
-      </c>
-      <c r="X39" t="s">
-        <v>32</v>
+        <v>45337.487870370373</v>
       </c>
       <c r="Y39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z39" s="2">
-        <v>45334.527986111112</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>34</v>
+        <v>45337.487870370373</v>
       </c>
       <c r="AB39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC39" s="2">
-        <v>45329.571446759262</v>
+        <v>45337.487233796295</v>
       </c>
       <c r="AD39" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AE39">
-        <v>7</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>45323.347870370373</v>
+        <v>-7</v>
       </c>
       <c r="AG39" t="s">
         <v>24</v>
       </c>
       <c r="AH39">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
@@ -4545,76 +4443,91 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>181668</v>
+        <v>182039</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F40" s="1">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="G40" s="1">
-        <v>45347</v>
+        <v>45354</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45282.600914351853</v>
       </c>
       <c r="I40" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="K40" s="2">
+        <v>45282.600914351853</v>
       </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="N40" s="2">
+        <v>45282.600914351853</v>
       </c>
       <c r="O40" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45294.431990740741</v>
       </c>
       <c r="R40" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="U40" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="V40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X40" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="Y40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA40" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AB40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD40" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AE40">
-        <v>46</v>
+        <v>-25</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>45289.336180555554</v>
       </c>
       <c r="AG40" t="s">
         <v>24</v>
       </c>
       <c r="AH40">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
@@ -4622,91 +4535,88 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>181717</v>
+        <v>181934</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="1">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="G41" s="1">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="H41" s="2">
-        <v>45274.378912037035</v>
+        <v>45271.555613425924</v>
       </c>
       <c r="I41" t="s">
         <v>20</v>
       </c>
       <c r="J41">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="K41" s="2">
-        <v>45274.378912037035</v>
+        <v>45271.555613425924</v>
       </c>
       <c r="L41" t="s">
         <v>20</v>
       </c>
       <c r="M41">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N41" s="2">
-        <v>45274.378912037035</v>
+        <v>45271.555613425924</v>
       </c>
       <c r="O41" t="s">
         <v>20</v>
       </c>
       <c r="P41">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="V41">
-        <v>4</v>
-      </c>
-      <c r="W41" s="2">
-        <v>45321.680844907409</v>
+        <v>7</v>
       </c>
       <c r="X41" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y41">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AA41" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AB41">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE41">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="AF41" s="2">
-        <v>45314.336724537039</v>
+        <v>45331.440081018518</v>
       </c>
       <c r="AG41" t="s">
         <v>24</v>
       </c>
       <c r="AH41">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
@@ -4714,73 +4624,85 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>181907</v>
+      </c>
+      <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45349</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45354</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45216.666770833333</v>
+      </c>
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42">
+        <v>133</v>
+      </c>
+      <c r="K42" s="2">
+        <v>45217.623611111114</v>
+      </c>
+      <c r="L42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>132</v>
+      </c>
+      <c r="O42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42">
-        <v>24001002</v>
-      </c>
-      <c r="F42" s="1">
-        <v>45342</v>
-      </c>
-      <c r="G42" s="1">
-        <v>45347</v>
-      </c>
-      <c r="I42" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="L42" t="s">
-        <v>54</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-      <c r="R42" t="s">
-        <v>55</v>
-      </c>
       <c r="S42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U42" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="V42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X42" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="Y42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA42" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="AB42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AE42">
-        <v>-19769</v>
+        <v>10</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>45140.344548611109</v>
       </c>
       <c r="AG42" t="s">
         <v>24</v>
       </c>
       <c r="AH42">
-        <v>4</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
@@ -4788,88 +4710,91 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>181936</v>
+        <v>181868</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F43" s="1">
-        <v>45342</v>
+        <v>45349</v>
       </c>
       <c r="G43" s="1">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="H43" s="2">
-        <v>45271.556979166664</v>
+        <v>45320.494976851849</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J43">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="K43" s="2">
-        <v>45271.556979166664</v>
+        <v>45320.494976851849</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N43" s="2">
-        <v>45271.556979166664</v>
+        <v>45320.494976851849</v>
       </c>
       <c r="O43" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P43">
-        <v>71</v>
+        <v>29</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>45334.399189814816</v>
       </c>
       <c r="R43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U43" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="V43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X43" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Y43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AB43">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>45334.399189814816</v>
       </c>
       <c r="AD43" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AE43">
-        <v>-3</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>45300.332442129627</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="s">
         <v>24</v>
       </c>
       <c r="AH43">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
@@ -4877,88 +4802,91 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>181954</v>
+        <v>181819</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F44" s="1">
-        <v>45343</v>
+        <v>45349</v>
       </c>
       <c r="G44" s="1">
-        <v>45348</v>
+        <v>45354</v>
       </c>
       <c r="H44" s="2">
-        <v>45271.498043981483</v>
+        <v>45295.470011574071</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J44">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K44" s="2">
-        <v>45271.498043981483</v>
+        <v>45295.470011574071</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N44" s="2">
-        <v>45271.498043981483</v>
+        <v>45295.470011574071</v>
       </c>
       <c r="O44" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P44">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R44" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="T44" s="2">
+        <v>45323.650138888886</v>
       </c>
       <c r="U44" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="V44">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Y44">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>45323.650138888886</v>
       </c>
       <c r="AA44" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AB44">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AD44" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AE44">
-        <v>12</v>
-      </c>
-      <c r="AF44" s="2">
-        <v>45337.325752314813</v>
+        <v>-48</v>
       </c>
       <c r="AG44" t="s">
         <v>24</v>
       </c>
       <c r="AH44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
@@ -4972,1087 +4900,82 @@
         <v>25</v>
       </c>
       <c r="D45">
-        <v>181680</v>
+        <v>181929</v>
       </c>
       <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45349</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45354</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45271.554131944446</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>78</v>
+      </c>
+      <c r="K45" s="2">
+        <v>45271.554131944446</v>
+      </c>
+      <c r="L45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>78</v>
+      </c>
+      <c r="N45" s="2">
+        <v>45271.554131944446</v>
+      </c>
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45">
+        <v>78</v>
+      </c>
+      <c r="R45" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="1">
-        <v>45343</v>
-      </c>
-      <c r="G45" s="1">
-        <v>45348</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="S45">
+        <v>7</v>
+      </c>
+      <c r="U45" t="s">
         <v>27</v>
       </c>
-      <c r="J45">
-        <v>5</v>
-      </c>
-      <c r="L45" t="s">
-        <v>27</v>
-      </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="R45" t="s">
+      <c r="V45">
+        <v>7</v>
+      </c>
+      <c r="X45" t="s">
         <v>28</v>
       </c>
-      <c r="S45">
-        <v>5</v>
-      </c>
-      <c r="U45" t="s">
-        <v>29</v>
-      </c>
-      <c r="V45">
-        <v>5</v>
-      </c>
-      <c r="X45" t="s">
-        <v>30</v>
-      </c>
       <c r="Y45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE45">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>45329.334467592591</v>
       </c>
       <c r="AG45" t="s">
         <v>24</v>
       </c>
       <c r="AH45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46">
-        <v>181925</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="1">
-        <v>45344</v>
-      </c>
-      <c r="G46" s="1">
-        <v>45349</v>
-      </c>
-      <c r="H46" s="2">
-        <v>45271.552835648145</v>
-      </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46">
-        <v>73</v>
-      </c>
-      <c r="K46" s="2">
-        <v>45271.552835648145</v>
-      </c>
-      <c r="L46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46">
-        <v>73</v>
-      </c>
-      <c r="N46" s="2">
-        <v>45271.552835648145</v>
-      </c>
-      <c r="O46" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46">
-        <v>73</v>
-      </c>
-      <c r="R46" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46">
-        <v>6</v>
-      </c>
-      <c r="U46" t="s">
-        <v>22</v>
-      </c>
-      <c r="V46">
-        <v>6</v>
-      </c>
-      <c r="X46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y46">
-        <v>6</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB46">
-        <v>6</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE46">
-        <v>-1</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>45323.348182870373</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH46">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47">
-        <v>181670</v>
-      </c>
-      <c r="E47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="1">
-        <v>45344</v>
-      </c>
-      <c r="G47" s="1">
-        <v>45349</v>
-      </c>
-      <c r="I47" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
-      <c r="L47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M47">
-        <v>6</v>
-      </c>
-      <c r="O47" t="s">
-        <v>27</v>
-      </c>
-      <c r="P47">
-        <v>6</v>
-      </c>
-      <c r="R47" t="s">
-        <v>28</v>
-      </c>
-      <c r="S47">
-        <v>6</v>
-      </c>
-      <c r="U47" t="s">
-        <v>29</v>
-      </c>
-      <c r="V47">
-        <v>6</v>
-      </c>
-      <c r="X47" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y47">
-        <v>6</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB47">
-        <v>6</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE47">
-        <v>47</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48">
-        <v>181957</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="1">
-        <v>45344</v>
-      </c>
-      <c r="G48" s="1">
-        <v>45349</v>
-      </c>
-      <c r="H48" s="2">
-        <v>45271.545729166668</v>
-      </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48">
-        <v>73</v>
-      </c>
-      <c r="K48" s="2">
-        <v>45271.545729166668</v>
-      </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48">
-        <v>73</v>
-      </c>
-      <c r="N48" s="2">
-        <v>45271.545729166668</v>
-      </c>
-      <c r="O48" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48">
-        <v>73</v>
-      </c>
-      <c r="R48" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48">
-        <v>6</v>
-      </c>
-      <c r="U48" t="s">
-        <v>22</v>
-      </c>
-      <c r="V48">
-        <v>6</v>
-      </c>
-      <c r="X48" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y48">
-        <v>6</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB48">
-        <v>6</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE48">
-        <v>-1</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>45323.347870370373</v>
-      </c>
-      <c r="AG48" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH48">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49">
-        <v>181921</v>
-      </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="1">
-        <v>45344</v>
-      </c>
-      <c r="G49" s="1">
-        <v>45349</v>
-      </c>
-      <c r="H49" s="2">
-        <v>45271.549456018518</v>
-      </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49">
-        <v>73</v>
-      </c>
-      <c r="K49" s="2">
-        <v>45271.549456018518</v>
-      </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>73</v>
-      </c>
-      <c r="N49" s="2">
-        <v>45271.549456018518</v>
-      </c>
-      <c r="O49" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49">
-        <v>73</v>
-      </c>
-      <c r="R49" t="s">
-        <v>32</v>
-      </c>
-      <c r="S49">
-        <v>6</v>
-      </c>
-      <c r="U49" t="s">
-        <v>33</v>
-      </c>
-      <c r="V49">
-        <v>6</v>
-      </c>
-      <c r="X49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y49">
-        <v>6</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB49">
-        <v>6</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE49">
-        <v>12</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>45337.325752314813</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50">
-        <v>181771</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G50" s="1">
-        <v>45350</v>
-      </c>
-      <c r="J50">
-        <v>7</v>
-      </c>
-      <c r="M50">
-        <v>7</v>
-      </c>
-      <c r="P50">
-        <v>7</v>
-      </c>
-      <c r="R50" t="s">
-        <v>49</v>
-      </c>
-      <c r="S50">
-        <v>7</v>
-      </c>
-      <c r="V50">
-        <v>7</v>
-      </c>
-      <c r="W50" s="2">
-        <v>45334.611562500002</v>
-      </c>
-      <c r="Y50">
-        <v>11</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>45334.611562500002</v>
-      </c>
-      <c r="AB50">
-        <v>11</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE50">
-        <v>-8</v>
-      </c>
-      <c r="AF50" s="2">
-        <v>45282.333020833335</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH50">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51">
-        <v>181937</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G51" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H51" s="2">
-        <v>45271.557604166665</v>
-      </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51">
-        <v>74</v>
-      </c>
-      <c r="K51" s="2">
-        <v>45271.557604166665</v>
-      </c>
-      <c r="L51" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51">
-        <v>74</v>
-      </c>
-      <c r="N51" s="2">
-        <v>45271.557604166665</v>
-      </c>
-      <c r="O51" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51">
-        <v>74</v>
-      </c>
-      <c r="R51" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51">
-        <v>7</v>
-      </c>
-      <c r="U51" t="s">
-        <v>22</v>
-      </c>
-      <c r="V51">
-        <v>7</v>
-      </c>
-      <c r="X51" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y51">
-        <v>7</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB51">
-        <v>7</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>45301.323530092595</v>
-      </c>
-      <c r="AG51" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH51">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52">
-        <v>181748</v>
-      </c>
-      <c r="E52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G52" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H52" s="2">
-        <v>45274.460729166669</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52">
-        <v>71</v>
-      </c>
-      <c r="L52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52">
-        <v>7</v>
-      </c>
-      <c r="O52" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52">
-        <v>7</v>
-      </c>
-      <c r="R52" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52">
-        <v>7</v>
-      </c>
-      <c r="U52" t="s">
-        <v>22</v>
-      </c>
-      <c r="V52">
-        <v>7</v>
-      </c>
-      <c r="X52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y52">
-        <v>7</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB52">
-        <v>7</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE52">
-        <v>-28</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>45300.328958333332</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH52">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53">
-        <v>181672</v>
-      </c>
-      <c r="E53" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G53" s="1">
-        <v>45350</v>
-      </c>
-      <c r="I53" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53">
-        <v>7</v>
-      </c>
-      <c r="L53" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53">
-        <v>7</v>
-      </c>
-      <c r="O53" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53">
-        <v>7</v>
-      </c>
-      <c r="R53" t="s">
-        <v>28</v>
-      </c>
-      <c r="S53">
-        <v>7</v>
-      </c>
-      <c r="U53" t="s">
-        <v>29</v>
-      </c>
-      <c r="V53">
-        <v>7</v>
-      </c>
-      <c r="X53" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y53">
-        <v>7</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB53">
-        <v>7</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE53">
-        <v>48</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54">
-        <v>181943</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G54" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H54" s="2">
-        <v>45271.49428240741</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54">
-        <v>74</v>
-      </c>
-      <c r="K54" s="2">
-        <v>45271.49428240741</v>
-      </c>
-      <c r="L54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54">
-        <v>74</v>
-      </c>
-      <c r="N54" s="2">
-        <v>45271.49428240741</v>
-      </c>
-      <c r="O54" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54">
-        <v>74</v>
-      </c>
-      <c r="R54" t="s">
-        <v>32</v>
-      </c>
-      <c r="S54">
-        <v>7</v>
-      </c>
-      <c r="U54" t="s">
-        <v>33</v>
-      </c>
-      <c r="V54">
-        <v>7</v>
-      </c>
-      <c r="X54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54">
-        <v>7</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB54">
-        <v>7</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE54">
-        <v>-2</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>45323.347870370373</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH54">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55">
-        <v>181929</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G55" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H55" s="2">
-        <v>45271.554131944446</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55">
-        <v>74</v>
-      </c>
-      <c r="K55" s="2">
-        <v>45271.554131944446</v>
-      </c>
-      <c r="L55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55">
-        <v>74</v>
-      </c>
-      <c r="N55" s="2">
-        <v>45271.554131944446</v>
-      </c>
-      <c r="O55" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55">
-        <v>74</v>
-      </c>
-      <c r="R55" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55">
-        <v>7</v>
-      </c>
-      <c r="U55" t="s">
-        <v>22</v>
-      </c>
-      <c r="V55">
-        <v>7</v>
-      </c>
-      <c r="X55" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y55">
-        <v>7</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB55">
-        <v>7</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE55">
-        <v>4</v>
-      </c>
-      <c r="AF55" s="2">
-        <v>45329.334467592591</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH55">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56">
-        <v>181767</v>
-      </c>
-      <c r="E56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G56" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H56" s="2">
-        <v>45289.398831018516</v>
-      </c>
-      <c r="I56" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56">
-        <v>56</v>
-      </c>
-      <c r="K56" s="2">
-        <v>45289.398449074077</v>
-      </c>
-      <c r="L56" t="s">
-        <v>52</v>
-      </c>
-      <c r="M56">
-        <v>56</v>
-      </c>
-      <c r="N56" s="2">
-        <v>45289.398449074077</v>
-      </c>
-      <c r="O56" t="s">
-        <v>52</v>
-      </c>
-      <c r="P56">
-        <v>56</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>45317.407118055555</v>
-      </c>
-      <c r="R56" t="s">
-        <v>41</v>
-      </c>
-      <c r="S56">
-        <v>28</v>
-      </c>
-      <c r="U56" t="s">
-        <v>42</v>
-      </c>
-      <c r="V56">
-        <v>7</v>
-      </c>
-      <c r="X56" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y56">
-        <v>7</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB56">
-        <v>7</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE56">
-        <v>-16</v>
-      </c>
-      <c r="AF56" s="2">
-        <v>45308.459641203706</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH56">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57">
-        <v>181949</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="1">
-        <v>45345</v>
-      </c>
-      <c r="G57" s="1">
-        <v>45350</v>
-      </c>
-      <c r="H57" s="2">
-        <v>45271.495937500003</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57">
-        <v>74</v>
-      </c>
-      <c r="K57" s="2">
-        <v>45271.495937500003</v>
-      </c>
-      <c r="L57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57">
-        <v>74</v>
-      </c>
-      <c r="N57" s="2">
-        <v>45271.495937500003</v>
-      </c>
-      <c r="O57" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57">
-        <v>74</v>
-      </c>
-      <c r="R57" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57">
-        <v>7</v>
-      </c>
-      <c r="U57" t="s">
-        <v>22</v>
-      </c>
-      <c r="V57">
-        <v>7</v>
-      </c>
-      <c r="X57" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y57">
-        <v>7</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB57">
-        <v>7</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE57">
-        <v>20</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH57">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
